--- a/master/output/updatedStock/updated_stock_slit_coil.xlsx
+++ b/master/output/updatedStock/updated_stock_slit_coil.xlsx
@@ -480,7 +480,7 @@
         <v>500</v>
       </c>
       <c r="L2">
-        <v>614.2857142857143</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -708,7 +708,7 @@
         <v>500</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>295.7746478873239</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1392,7 +1392,7 @@
         <v>500</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>457.1428571428572</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1620,7 +1620,7 @@
         <v>500</v>
       </c>
       <c r="L32">
-        <v>802.8169014084507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12">

--- a/master/output/updatedStock/updated_stock_slit_coil.xlsx
+++ b/master/output/updatedStock/updated_stock_slit_coil.xlsx
@@ -518,7 +518,7 @@
         <v>1200</v>
       </c>
       <c r="L3">
-        <v>1170.7</v>
+        <v>1299.271428571429</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -708,7 +708,7 @@
         <v>500</v>
       </c>
       <c r="L8">
-        <v>295.7746478873239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1392,7 +1392,7 @@
         <v>500</v>
       </c>
       <c r="L26">
-        <v>457.1428571428572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1582,7 +1582,7 @@
         <v>2500</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>781.6901408450702</v>
       </c>
     </row>
     <row r="32" spans="1:12">
